--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6008" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="1911">
   <si>
     <t>Mavens i
 IKSANA
@@ -33249,8 +33249,8 @@
   <sheetPr/>
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
@@ -33510,7 +33510,7 @@
         <v>272</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:11">
@@ -33615,7 +33615,7 @@
         <v>272</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:11">
@@ -33650,7 +33650,7 @@
         <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:11">
@@ -33685,7 +33685,7 @@
         <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:11">
@@ -33825,7 +33825,7 @@
         <v>272</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:11">
@@ -33930,7 +33930,7 @@
         <v>272</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:11">
@@ -34035,7 +34035,7 @@
         <v>272</v>
       </c>
       <c r="K22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:11">
@@ -34140,7 +34140,7 @@
         <v>272</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="1" customHeight="1" spans="1:11">
@@ -34245,7 +34245,7 @@
         <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -34810,8 +34810,8 @@
   <sheetPr/>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
@@ -35420,7 +35420,7 @@
       <c r="J17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -35456,7 +35456,7 @@
         <v>342</v>
       </c>
       <c r="K18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:11">
@@ -35701,7 +35701,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="1" customHeight="1" spans="1:11">
@@ -35736,7 +35736,7 @@
         <v>162</v>
       </c>
       <c r="K26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="1" customHeight="1" spans="1:11">
@@ -36155,7 +36155,7 @@
       <c r="J38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" t="s">
         <v>7</v>
       </c>
     </row>
@@ -36191,7 +36191,7 @@
         <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:11">
@@ -36261,7 +36261,7 @@
         <v>62</v>
       </c>
       <c r="K41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:11">

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="942" activeTab="5"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="942" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="6" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5965" uniqueCount="1911">
   <si>
     <t>Mavens i
 IKSANA
@@ -12650,7 +12650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12800,6 +12800,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -13944,7 +13947,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14222,489 +14225,489 @@
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14730,14 +14733,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6272727272727" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="7.25454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.6272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="15.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.3727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.6272727272727" collapsed="true"/>
+    <col min="1" max="1" width="7.25454545454545" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6272727272727" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -15231,14 +15234,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6272727272727" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="7.25454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.2545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.6272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="15.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.3727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.6272727272727" collapsed="true"/>
+    <col min="1" max="1" width="7.25454545454545" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6272727272727" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -16354,14 +16357,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7545454545455" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.3727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.3727272727273" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.2545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="1" max="1" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -17101,14 +17104,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7545454545455" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.1272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.2545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="1" max="1" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -19133,16 +19136,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="27.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.8727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.1272727272727" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.8727272727273" collapsed="true"/>
+    <col min="2" max="2" width="27.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -19613,17 +19616,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25454545454545" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.25454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.1272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.8727272727273" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.8727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.25454545454545" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.25454545454545" collapsed="true"/>
+    <col min="1" max="1" width="9.25454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.25454545454545" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.25454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -20215,14 +20218,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.3727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -20646,14 +20649,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.3727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -21045,14 +21048,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -21575,14 +21578,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -22175,746 +22178,746 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.1272727272727" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.1272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" width="10.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="31.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.8727272727273" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="64">
+      <c r="D1" s="65">
         <f>B27</f>
         <v>272</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="66">
         <v>45118</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="65">
         <f>C27</f>
         <v>266</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="66">
         <v>45118</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="65">
         <f>D27</f>
         <v>160</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="66">
         <v>45122</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="67">
         <f>E27</f>
         <v>106</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="65">
         <f>F27</f>
         <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="71" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="74">
         <f>SUM(D12:F12)</f>
         <v>18</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="74">
         <f>SUM(D12,E12)</f>
         <v>18</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="74">
         <f>COUNTIF('UserCreation APIs'!K:K,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="74">
         <f>COUNTIF('UserCreation APIs'!K:K,"Fail")</f>
         <v>8</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="74">
         <f>COUNTIF('UserCreation APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="75">
         <f>((D12/C12)*100)</f>
         <v>55.5555555555556</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="75">
         <f>((E12/C12)*100)</f>
         <v>44.4444444444444</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="75">
         <f>((F12/C12)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="39.95" customHeight="1" spans="1:9">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="74">
         <f t="shared" ref="B13:B26" si="0">SUM(D13:F13)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="74">
         <f t="shared" ref="C13:C26" si="1">SUM(D13,E13)</f>
         <v>12</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="74">
         <f>COUNTIF('UserUpdate&amp;UserDetailsGet APIs'!K:K,"Pass")</f>
         <v>6</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="74">
         <f>COUNTIF('UserUpdate&amp;UserDetailsGet APIs'!K:K,"Fail")</f>
         <v>6</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="74">
         <f>COUNTIF('UserUpdate&amp;UserDetailsGet APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="75">
         <f t="shared" ref="G13:G26" si="2">((D13/C13)*100)</f>
         <v>50</v>
       </c>
-      <c r="H13" s="74">
+      <c r="H13" s="75">
         <f t="shared" ref="H13:H26" si="3">((E13/C13)*100)</f>
         <v>50</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="75">
         <f t="shared" ref="I13:I18" si="4">((F13/C13)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:9">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="74">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="74">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="74">
         <f>COUNTIF('NewPwd&amp;ChangePassword APIs'!K:K,"Pass")</f>
         <v>18</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="74">
         <f>COUNTIF('NewPwd&amp;ChangePassword APIs'!K:K,"Fail")</f>
         <v>6</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="74">
         <f>COUNTIF('NewPwd&amp;ChangePassword APIs'!K:K,"Hold")</f>
         <v>6</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="75">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="75">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="75">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="73">
+      <c r="B15" s="74">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="74">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="74">
         <f>COUNTIF('UserOnboarding APIs'!K:K,"Pass")</f>
         <v>9</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="74">
         <f>COUNTIF('UserOnboarding APIs'!K:K,"Fail")</f>
         <v>9</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="74">
         <f>COUNTIF('UserOnboarding APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="75">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="75">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="74">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="74">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="74">
         <f>COUNTIF('AppointmentList APIs'!K:K,"Pass")</f>
         <v>14</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="74">
         <f>COUNTIF('AppointmentList APIs'!K:K,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="74">
         <f>COUNTIF('AppointmentList APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="75">
         <f t="shared" si="2"/>
         <v>93.3333333333333</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="75">
         <f t="shared" si="3"/>
         <v>6.66666666666667</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="74">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="74">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="74">
         <f>COUNTIF('Cancel Appointment APIs'!K:K,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="74">
         <f>COUNTIF('Cancel Appointment APIs'!K:K,"Fail")</f>
         <v>5</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="74">
         <f>COUNTIF('Cancel Appointment APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="75">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="75">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="73">
+      <c r="B18" s="74">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="74">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="74">
         <f>COUNTIF('Appointment APIs'!K:K,"Pass")</f>
         <v>37</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="74">
         <f>COUNTIF('Appointment APIs'!K:K,"Fail")</f>
         <v>16</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="74">
         <f>COUNTIF('Appointment APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="75">
         <f t="shared" si="2"/>
         <v>69.811320754717</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="75">
         <f t="shared" si="3"/>
         <v>30.188679245283</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="75">
         <f>((IF18/C18)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="74">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="74">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="74">
         <f>COUNTIF('LiveRequest APIs'!K:K,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="74">
         <f>COUNTIF('LiveRequest APIs'!K:K,"Fail")</f>
         <v>2</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="74">
         <f>COUNTIF('LiveRequest APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="78">
         <f t="shared" si="2"/>
         <v>71.4285714285714</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="78">
         <f t="shared" si="3"/>
         <v>28.5714285714286</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="78">
         <f>((IF19/C19)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="74">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="74">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="74">
         <f>COUNTIF('OTP Verification API'!K:K,"Pass")</f>
         <v>6</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="74">
         <f>COUNTIF('OTP Verification API'!K:K,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="74">
         <f>COUNTIF('OTP Verification API'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="78">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="78">
         <f>((IF19/C19)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="74">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="74">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="74">
         <f>COUNTIF('Profile update'!K:K,"Pass")</f>
         <v>2</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="74">
         <f>COUNTIF('Profile update'!K:K,"Fail")</f>
         <v>10</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="74">
         <f>COUNTIF('Profile update'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="78">
         <f t="shared" si="2"/>
         <v>16.6666666666667</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="78">
         <f t="shared" si="3"/>
         <v>83.3333333333333</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="78">
         <f>((IF19/C19)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="74">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="74">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="74">
         <f>COUNTIF(Accommodation!K:K,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="74">
         <f>COUNTIF(Accommodation!K:K,"Fail")</f>
         <v>5</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="74">
         <f>COUNTIF(Accommodation!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="78">
         <f t="shared" si="2"/>
         <v>66.6666666666667</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="78">
         <f t="shared" si="3"/>
         <v>33.3333333333333</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="78">
         <f>((IF22/C22)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="74">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="74">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="74">
         <f>COUNTIF('Housing Unit'!K:K,"Pass")</f>
         <v>11</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="74">
         <f>COUNTIF('Housing Unit'!K:K,"Fail")</f>
         <v>8</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="74">
         <f>COUNTIF('Housing Unit'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="78">
         <f t="shared" si="2"/>
         <v>57.8947368421053</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="78">
         <f t="shared" si="3"/>
         <v>42.1052631578947</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="78">
         <f>((IF23/C23)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="73">
+      <c r="B24" s="74">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="74">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="74">
         <f>COUNTIF(RoomType!K:K,"Pass")</f>
         <v>11</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="74">
         <f>COUNTIF(RoomType!K:K,"Fail")</f>
         <v>6</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="74">
         <f>COUNTIF(RoomType!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="78">
         <f t="shared" si="2"/>
         <v>64.7058823529412</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="78">
         <f t="shared" si="3"/>
         <v>35.2941176470588</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="78">
         <f>((IF24/C24)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="74">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="74">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="74">
         <f>COUNTIF(Speciality_APIs!K:K,"Pass")</f>
         <v>8</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="74">
         <f>COUNTIF(Speciality_APIs!K:K,"Fail")</f>
         <v>12</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="74">
         <f>COUNTIF(Speciality_APIs!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="78">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="78">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="78">
         <f>((IF25/C25)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="74">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="74">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="74">
         <f>COUNTIF('Special Skill_APIs'!K:K,"Pass")</f>
         <v>8</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="74">
         <f>COUNTIF('Special Skill_APIs'!K:K,"Fail")</f>
         <v>12</v>
       </c>
-      <c r="F26" s="73">
+      <c r="F26" s="74">
         <f>COUNTIF('Special Skill_APIs'!K:K,"Hold")</f>
         <v>0</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="78">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="78">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="78">
         <f>((IF26/C26)*100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="80">
         <f>SUM(B12:B26)</f>
         <v>272</v>
       </c>
-      <c r="C27" s="79">
+      <c r="C27" s="80">
         <f>SUM(C12:C26)</f>
         <v>266</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="80">
         <f>SUM(D12:D26)</f>
         <v>160</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="80">
         <f>SUM(E12:E26)</f>
         <v>106</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="80">
         <f>SUM(F12:F26)</f>
         <v>6</v>
       </c>
-      <c r="G27" s="80">
+      <c r="G27" s="81">
         <f>AVERAGE(G12:G26)</f>
         <v>60.0708489067038</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="81">
         <f>AVERAGE(H12:H26)</f>
         <v>39.9291510932962</v>
       </c>
-      <c r="I27" s="80">
+      <c r="I27" s="81">
         <f>AVERAGE(I12:I26)</f>
         <v>1.66666666666667</v>
       </c>
@@ -22941,14 +22944,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -23675,14 +23678,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="16.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -24345,18 +24348,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="7.75454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="15" width="15.3727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="18.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="15" width="16.8727272727273" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="9" width="12.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="9" width="15.2545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="9" width="15.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="9" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="9" width="12.8727272727273" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="9" width="12.6272727272727" collapsed="true"/>
-    <col min="12" max="16384" style="9" width="8.75454545454545" collapsed="true"/>
+    <col min="1" max="1" width="7.75454545454545" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.3727272727273" style="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.2545454545455" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.1272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.8727272727273" style="9" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.6272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.75454545454545" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="45" customHeight="1" spans="1:11">
@@ -25155,17 +25158,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -25933,17 +25936,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -26710,17 +26713,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -27487,16 +27490,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -28263,16 +28266,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -29039,16 +29042,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -29814,17 +29817,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="28.5454545454545" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="51" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="30.7545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5454545454545" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="52" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.7545454545455" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -29840,7 +29843,7 @@
       <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="26" t="s">
@@ -29872,7 +29875,7 @@
       <c r="C2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="42" t="s">
@@ -29907,7 +29910,7 @@
       <c r="C3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="58" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="42" t="s">
@@ -29942,7 +29945,7 @@
       <c r="C4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -29977,7 +29980,7 @@
       <c r="C5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="58" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="42" t="s">
@@ -30012,7 +30015,7 @@
       <c r="C6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="58" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="42" t="s">
@@ -30047,10 +30050,10 @@
       <c r="C7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="54" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="42" t="s">
@@ -30082,7 +30085,7 @@
       <c r="C8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="42" t="s">
@@ -30117,7 +30120,7 @@
       <c r="C9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="42" t="s">
@@ -30152,7 +30155,7 @@
       <c r="C10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E10" s="45" t="s">
@@ -30187,7 +30190,7 @@
       <c r="C11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -30222,10 +30225,10 @@
       <c r="C12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="54" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="42" t="s">
@@ -30505,7 +30508,7 @@
       <c r="D20" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="54" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="46" t="s">
@@ -30543,7 +30546,7 @@
       <c r="E21" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="59" t="s">
         <v>116</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -30578,7 +30581,7 @@
       <c r="E22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="59" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -30607,13 +30610,13 @@
       <c r="C23" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="59" t="s">
         <v>116</v>
       </c>
       <c r="G23" s="31" t="s">
@@ -30645,10 +30648,10 @@
       <c r="D24" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="62" t="s">
         <v>116</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -30683,7 +30686,7 @@
       <c r="E25" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="62" t="s">
         <v>116</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -30718,7 +30721,7 @@
       <c r="E26" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="62" t="s">
         <v>116</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -30820,7 +30823,7 @@
       <c r="D29" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="61" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="46" t="s">
@@ -30960,7 +30963,7 @@
       <c r="D33" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="61" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="48" t="s">
@@ -31100,7 +31103,7 @@
       <c r="D37" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="61" t="s">
         <v>110</v>
       </c>
       <c r="F37" s="48" t="s">
@@ -31135,7 +31138,7 @@
       <c r="D38" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="54" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="48" t="s">
@@ -31167,7 +31170,7 @@
       <c r="C39" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="60" t="s">
         <v>149</v>
       </c>
       <c r="E39" s="44" t="s">
@@ -31310,7 +31313,7 @@
       <c r="D43" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="61" t="s">
         <v>110</v>
       </c>
       <c r="F43" s="48" t="s">
@@ -31345,7 +31348,7 @@
       <c r="D44" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="54" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="48" t="s">
@@ -31520,7 +31523,7 @@
       <c r="D49" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="61" t="s">
         <v>110</v>
       </c>
       <c r="F49" s="48" t="s">
@@ -31555,7 +31558,7 @@
       <c r="D50" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="54" t="s">
         <v>169</v>
       </c>
       <c r="F50" s="48" t="s">
@@ -31590,7 +31593,7 @@
       <c r="D51" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="54" t="s">
         <v>172</v>
       </c>
       <c r="F51" s="48" t="s">
@@ -31624,7 +31627,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1:K15 H1" listDataValidation="1"/>
+    <ignoredError sqref="H1 K1:K15" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -31640,17 +31643,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="38" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -32747,7 +32750,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="41"/>
-      <c r="E32" s="56"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="46"/>
       <c r="G32" s="3"/>
       <c r="H32" s="19"/>
@@ -33210,7 +33213,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="21"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="12" t="s">
         <v>9</v>
       </c>
@@ -33225,7 +33228,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="21"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="12" t="s">
         <v>9</v>
       </c>
@@ -33255,17 +33258,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="38" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -33424,7 +33427,7 @@
       <c r="E5" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="55" t="s">
         <v>275</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -33459,7 +33462,7 @@
       <c r="E6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="56" t="s">
         <v>275</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -33494,7 +33497,7 @@
       <c r="E7" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="55" t="s">
         <v>275</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -34308,7 +34311,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="41"/>
-      <c r="E32" s="56"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="46"/>
       <c r="G32" s="3"/>
       <c r="H32" s="19"/>
@@ -34771,7 +34774,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="21"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="12" t="s">
         <v>9</v>
       </c>
@@ -34786,7 +34789,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="21"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="12" t="s">
         <v>9</v>
       </c>
@@ -34810,23 +34813,23 @@
   <sheetPr/>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="32.7272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="51" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="32.7272727272727" style="9" customWidth="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="52" customWidth="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -34842,7 +34845,7 @@
       <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>47</v>
       </c>
       <c r="F1" s="26" t="s">
@@ -36517,7 +36520,7 @@
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="41"/>
-      <c r="E54" s="53"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="48"/>
       <c r="G54" s="3"/>
       <c r="H54" s="19"/>
@@ -36631,7 +36634,7 @@
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="41"/>
-      <c r="E60" s="53"/>
+      <c r="E60" s="54"/>
       <c r="F60" s="48"/>
       <c r="G60" s="3"/>
       <c r="H60" s="19"/>
@@ -36745,12 +36748,12 @@
       </c>
       <c r="C66" s="21"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="53"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="32"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="21"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="19" t="s">
         <v>9</v>
       </c>
@@ -36760,12 +36763,12 @@
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="53"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="32"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="21"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="19"/>
     </row>
   </sheetData>
@@ -36787,23 +36790,23 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.2727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="74.8181818181818" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1"/>
+    <col min="5" max="5" width="74.8181818181818" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -36872,8 +36875,8 @@
       <c r="J2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K2" t="s">
-        <v>7</v>
+      <c r="K2" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:11">
@@ -36907,8 +36910,8 @@
       <c r="J3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K3" t="s">
-        <v>7</v>
+      <c r="K3" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:11">
@@ -36942,8 +36945,8 @@
       <c r="J4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K4" t="s">
-        <v>7</v>
+      <c r="K4" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:11">
@@ -36977,7 +36980,7 @@
       <c r="J5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37012,7 +37015,7 @@
       <c r="J6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37047,7 +37050,7 @@
       <c r="J7" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37082,7 +37085,7 @@
       <c r="J8" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37117,8 +37120,8 @@
       <c r="J9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K9" t="s">
-        <v>7</v>
+      <c r="K9" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:11">
@@ -37152,8 +37155,8 @@
       <c r="J10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K10" t="s">
-        <v>7</v>
+      <c r="K10" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:11">
@@ -37187,8 +37190,8 @@
       <c r="J11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K11" t="s">
-        <v>7</v>
+      <c r="K11" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:11">
@@ -37222,7 +37225,7 @@
       <c r="J12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37257,7 +37260,7 @@
       <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37292,7 +37295,7 @@
       <c r="J14" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37327,7 +37330,7 @@
       <c r="J15" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37362,8 +37365,8 @@
       <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K16" t="s">
-        <v>7</v>
+      <c r="K16" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:11">
@@ -37397,8 +37400,8 @@
       <c r="J17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K17" t="s">
-        <v>7</v>
+      <c r="K17" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:11">
@@ -37432,7 +37435,7 @@
       <c r="J18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37467,8 +37470,8 @@
       <c r="J19" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K19" t="s">
-        <v>7</v>
+      <c r="K19" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:11">
@@ -37502,8 +37505,8 @@
       <c r="J20" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K20" t="s">
-        <v>7</v>
+      <c r="K20" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:11">
@@ -37537,8 +37540,8 @@
       <c r="J21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K21" t="s">
-        <v>7</v>
+      <c r="K21" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:11">
@@ -37572,8 +37575,8 @@
       <c r="J22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K22" t="s">
-        <v>7</v>
+      <c r="K22" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:11">
@@ -37607,8 +37610,8 @@
       <c r="J23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K23" t="s">
-        <v>7</v>
+      <c r="K23" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:11">
@@ -37642,8 +37645,8 @@
       <c r="J24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K24" t="s">
-        <v>7</v>
+      <c r="K24" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:11">
@@ -37677,7 +37680,7 @@
       <c r="J25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37712,8 +37715,8 @@
       <c r="J26" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K26" t="s">
-        <v>7</v>
+      <c r="K26" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:11">
@@ -37747,7 +37750,7 @@
       <c r="J27" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -37782,8 +37785,8 @@
       <c r="J28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K28" t="s">
-        <v>7</v>
+      <c r="K28" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:11">
@@ -38201,7 +38204,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="12" t="s">
         <v>9</v>
       </c>
@@ -38216,7 +38219,7 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="12" t="s">
         <v>9</v>
       </c>
@@ -38229,14 +38232,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H8 H9 H10 H11 H12 H13 H14 H15 H16 H20 H21 H25 H43 H49 H5:H7 H17:H19 H22:H24 H26:H42 H44:H46 H47:H48 H50:H1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K18 K19:K31 K32:K51 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K28 K29:K31 K32:K51 K52:K1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
+    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38272,18 +38275,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="42" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.8727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="29" width="18.7545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.8727272727273" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="30.7545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.2545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="14.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7545454545455" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.7545454545455" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.8727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -38688,8 +38688,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="1879">
   <si>
     <t>Mavens i
 IKSANA
@@ -13915,7 +13915,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14701,18 +14701,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="42" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7545454545455" style="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.7545454545455" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.8727272727273" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="29" width="18.7545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.8727272727273" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="30.7545454545455" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.2545454545455" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -15396,14 +15396,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6272727272727" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.25454545454545" style="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6272727272727" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="12" width="7.25454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.8727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.6272727272727" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="15.6272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.3727272727273" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -15897,14 +15897,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6272727272727" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.25454545454545" style="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6272727272727" style="29" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="12" width="7.25454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.2545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.6272727272727" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="29" width="15.6272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.3727272727273" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -17020,14 +17020,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7545454545455" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.3727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.3727272727273" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7545454545455" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.2545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7545454545455" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -17767,14 +17767,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7545454545455" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.1272727272727" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.7545454545455" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.2545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.7545454545455" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -19799,16 +19799,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="27.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="27.6272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.8727272727273" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7545454545455" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.1272727272727" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -20279,17 +20279,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25454545454545" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.25454545454545" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.25454545454545" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.25454545454545" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.25454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.8727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.1272727272727" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.8727272727273" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.8727272727273" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="9.25454545454545" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.1272727272727" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.25454545454545" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -20881,14 +20881,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="21.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.3727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -21312,14 +21312,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="21.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.3727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -21711,14 +21711,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -22239,11 +22239,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.8727272727273" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.1272727272727" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.1272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" width="10.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -23403,14 +23403,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="21.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.6272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -24005,14 +24005,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="21.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.6272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -24739,14 +24739,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.6272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -25409,18 +25409,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.75454545454545" style="9" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.3727272727273" style="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.8727272727273" style="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.2545454545455" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.1272727272727" style="9" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.1272727272727" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.8727272727273" style="9" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.6272727272727" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="8.75454545454545" style="9" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="7.75454545454545" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="15.3727272727273" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="18.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="15" width="16.8727272727273" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="15.2545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="9" width="15.1272727272727" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="9" width="13.1272727272727" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="9" width="12.8727272727273" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="12.6272727272727" collapsed="true"/>
+    <col min="12" max="16384" style="9" width="8.75454545454545" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="45" customHeight="1" spans="1:11">
@@ -26219,17 +26219,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.1272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -26997,17 +26997,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.2545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -27774,17 +27774,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.2545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -28551,16 +28551,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -29327,16 +29327,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -30103,16 +30103,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -30878,17 +30878,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5454545454545" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.9090909090909" style="51" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.7545454545455" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="28.5454545454545" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="51" width="76.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="30.7545454545455" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -32704,17 +32704,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.9090909090909" style="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="38" width="76.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -34139,17 +34139,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.9090909090909" style="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="38" width="76.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -35561,17 +35561,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.7272727272727" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="76.9090909090909" style="51" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="32.7272727272727" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="51" width="76.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -37394,17 +37394,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.2727272727273" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="74.8181818181818" style="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.2727272727273" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="38" width="74.8181818181818" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -38694,17 +38694,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.36363636363636" customWidth="1"/>
-    <col min="2" max="2" width="18.7545454545455" customWidth="1"/>
-    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1"/>
-    <col min="5" max="5" width="74.8181818181818" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="32.8727272727273" customWidth="1"/>
-    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1"/>
-    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.2727272727273" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="38" width="74.8181818181818" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="1879">
   <si>
     <t>Mavens i
 IKSANA
@@ -12751,14 +12751,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -12771,6 +12768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -13915,7 +13915,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14701,18 +14701,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="42" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.8727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="29" width="18.7545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="36.8727272727273" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="30.7545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.2545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="14.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7545454545455" style="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.7545454545455" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.8727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -15366,10 +15366,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2:H7 H8:H19 H20:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K3:K19 K20:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15396,14 +15396,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6272727272727" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="7.25454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.6272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="15.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.3727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.6272727272727" collapsed="true"/>
+    <col min="1" max="1" width="7.25454545454545" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6272727272727" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -15870,10 +15870,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10:H11 H12:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H13">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K9 K10 K11 K12 K13 K7:K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K13">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15897,14 +15897,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6272727272727" defaultRowHeight="39" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="7.25454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.2545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.6272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="29" width="15.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.3727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.6272727272727" collapsed="true"/>
+    <col min="1" max="1" width="7.25454545454545" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6272727272727" style="29" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -16995,10 +16995,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H14 H15 H16 H17 H18 H19 H20 H21 H24 H25 H28 H29 H10:H11 H12:H13 H22:H23 H26:H27 H30:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H31">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K20 K21 K22 K29 K30 K31 K6:K7 K18:K19 K23:K28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K31">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17020,14 +17020,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7545454545455" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.3727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.3727272727273" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.2545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="1" max="1" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -17740,10 +17740,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H19">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K19">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17767,14 +17767,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7545454545455" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.1272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7545454545455" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.7545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.2545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.7545454545455" collapsed="true"/>
+    <col min="1" max="1" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.7545454545455" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -19772,10 +19772,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H4 H5 H10 H11 H12 H13 H16 H17 H18 H19 H20 H21 H22 H25 H26 H27 H30 H33 H36 H37 H38 H41 H42 H47 H48 H49 H50 H51 H52 H53 H54 H2:H3 H6:H7 H8:H9 H14:H15 H23:H24 H28:H29 H31:H32 H34:H35 H39:H40 H43:H44 H45:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H54">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K9 K10 K11 K12 K15 K18 K19 K20 K21 K24 K25 K26 K29 K30 K31 K32 K33 K34 K35 K36 K37 K40 K41 K42 K43 K44 K45 K46 K47 K50 K51 K54 K5:K6 K7:K8 K13:K14 K16:K17 K22:K23 K27:K28 K38:K39 K48:K49 K52:K53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K54">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19799,16 +19799,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="27.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.8727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.1272727272727" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.8727272727273" collapsed="true"/>
+    <col min="2" max="2" width="27.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="1" customHeight="1" spans="1:11">
@@ -20252,10 +20252,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5 H6 H9 H10 H11 H2:H4 H7:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H11">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K8 K9 K10 K11 K2:K5 K6:K7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K11">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20279,17 +20279,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25454545454545" defaultRowHeight="32.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.25454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.1272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.8727272727273" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.8727272727273" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="9.25454545454545" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.25454545454545" collapsed="true"/>
+    <col min="1" max="1" width="9.25454545454545" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.25454545454545" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.25454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -20854,10 +20854,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H5:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H16">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K3:K4 K5:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K16">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20881,14 +20881,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.3727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -21285,10 +21285,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H8">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K8">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21312,14 +21312,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.3727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -21686,10 +21686,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H8">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K8">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21711,14 +21711,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -22214,10 +22214,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H13">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K13">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22239,11 +22239,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.1272727272727" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.8727272727273" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.1272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" width="10.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="31.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.8727272727273" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
@@ -23211,11 +23211,11 @@
       </c>
       <c r="D36" s="73">
         <f>COUNTIF(Profile!K:K,"Pass")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="73">
         <f>COUNTIF(Profile!K:K,"Fail")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="73">
         <f>COUNTIF(Profile!K:K,"Hold")</f>
@@ -23223,11 +23223,11 @@
       </c>
       <c r="G36" s="74">
         <f t="shared" si="7"/>
-        <v>55.5555555555556</v>
+        <v>77.7777777777778</v>
       </c>
       <c r="H36" s="74">
         <f t="shared" si="8"/>
-        <v>44.4444444444444</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="I36" s="74">
         <f t="shared" si="9"/>
@@ -23358,11 +23358,11 @@
       </c>
       <c r="D47" s="80">
         <f t="shared" si="10"/>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="80">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" s="80">
         <f t="shared" si="10"/>
@@ -23370,11 +23370,11 @@
       </c>
       <c r="G47" s="81">
         <f t="shared" ref="G47:I47" si="11">AVERAGE(G32:G46)</f>
-        <v>67.6964769647696</v>
+        <v>72.1409214092141</v>
       </c>
       <c r="H47" s="81">
         <f t="shared" si="11"/>
-        <v>32.3035230352304</v>
+        <v>27.8590785907859</v>
       </c>
       <c r="I47" s="81">
         <f t="shared" si="11"/>
@@ -23403,14 +23403,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -23978,10 +23978,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H16">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K16">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24005,14 +24005,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="21.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -24712,10 +24712,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H20">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K20">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24739,14 +24739,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="45" customHeight="1"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.6272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="12" width="17.6272727272727" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.3727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.6272727272727" collapsed="true"/>
+    <col min="2" max="2" width="16.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6272727272727" style="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="1" customHeight="1" spans="1:11">
@@ -25384,10 +25384,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H18">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K18">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25409,18 +25409,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="7.75454545454545" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="9" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="15" width="15.3727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="18.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="15" width="16.8727272727273" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="9" width="12.5" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="9" width="15.2545454545455" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="9" width="15.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="9" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="9" width="12.8727272727273" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="9" width="12.6272727272727" collapsed="true"/>
-    <col min="12" max="16384" style="9" width="8.75454545454545" collapsed="true"/>
+    <col min="1" max="1" width="7.75454545454545" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.3727272727273" style="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.8727272727273" style="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.2545454545455" style="9" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.1272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.8727272727273" style="9" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.6272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="8.75454545454545" style="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="45" customHeight="1" spans="1:11">
@@ -26194,10 +26194,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H18 H19 H20 H21 H4:H5 H16:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K15 K16 K17 K18 K19 K20 K21 K3:K4 K13:K14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26219,17 +26219,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -26970,10 +26970,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H18 H19 H20 H21 H4:H5 H16:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K15 K16 K17 K18 K19 K20 K21 K3:K4 K13:K14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26997,17 +26997,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -27747,10 +27747,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H10 H11 H12 H13 H18 H21 H4:H5 H8:H9 H14:H15 H16:H17 H19:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K10 K11 K12 K13 K16 K17 K18 K21 K3:K4 K8:K9 K14:K15 K19:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27774,17 +27774,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="12" width="10.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.2545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.1272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.8727272727273" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.1272727272727" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.1272727272727" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.1272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.3727272727273" collapsed="true"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -28524,10 +28524,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H10 H11 H12 H13 H18 H21 H4:H5 H8:H9 H14:H15 H16:H17 H19:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K10 K11 K12 K13 K16 K17 K18 K21 K3:K4 K8:K9 K14:K15 K19:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28551,16 +28551,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -29300,10 +29300,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H10 H11 H12 H13 H20 H21 H8:H9 H14:H15 H16:H17 H18:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K10 K11 K12 K13 K16 K17 K18 K19 K20 K21 K8:K9 K14:K15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29327,16 +29327,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -30076,10 +30076,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H10 H11 H12 H13 H20 H21 H8:H9 H14:H15 H16:H17 H18:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K19 K20 K21 K17:K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30103,16 +30103,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.6272727272727" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.1272727272727" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.3727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.2545454545455" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="12.1272727272727" collapsed="true"/>
+    <col min="2" max="2" width="15.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.6272727272727" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.1272727272727" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.3727272727273" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.2545454545455" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.1272727272727" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:11">
@@ -30855,10 +30855,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H10 H11 H12 H13 H20 H21 H8:H9 H14:H15 H16:H17 H18:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K20 K21 K18:K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30878,17 +30878,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="28.5454545454545" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="51" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="30.7545454545455" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5454545454545" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.7545454545455" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -30919,7 +30919,7 @@
       <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="26" t="s">
@@ -31009,7 +31009,7 @@
       <c r="D4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="45" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="42" t="s">
@@ -31219,7 +31219,7 @@
       <c r="D10" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="45" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="42" t="s">
@@ -31394,7 +31394,7 @@
       <c r="D15" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="43" t="s">
@@ -31429,7 +31429,7 @@
       <c r="D16" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="50" t="s">
         <v>107</v>
       </c>
       <c r="F16" s="43" t="s">
@@ -31467,7 +31467,7 @@
       <c r="E17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -31502,7 +31502,7 @@
       <c r="E18" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -31537,7 +31537,7 @@
       <c r="E19" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -31572,7 +31572,7 @@
       <c r="E20" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>112</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -31744,7 +31744,7 @@
       <c r="D25" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F25" s="61" t="s">
@@ -31779,7 +31779,7 @@
       <c r="D26" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="50" t="s">
         <v>107</v>
       </c>
       <c r="F26" s="61" t="s">
@@ -31817,7 +31817,7 @@
       <c r="E27" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -31852,7 +31852,7 @@
       <c r="E28" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>129</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -31887,7 +31887,7 @@
       <c r="E29" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -31919,10 +31919,10 @@
       <c r="D30" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>133</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -31957,7 +31957,7 @@
       <c r="E31" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>136</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -31992,7 +31992,7 @@
       <c r="E32" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="47" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -32027,7 +32027,7 @@
       <c r="E33" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="47" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -32059,10 +32059,10 @@
       <c r="D34" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="47" t="s">
         <v>136</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -32097,7 +32097,7 @@
       <c r="E35" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>142</v>
       </c>
       <c r="G35" s="3" t="s">
@@ -32132,7 +32132,7 @@
       <c r="E36" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>145</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -32167,7 +32167,7 @@
       <c r="E37" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="47" t="s">
         <v>148</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -32202,7 +32202,7 @@
       <c r="E38" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>151</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -32234,10 +32234,10 @@
       <c r="D39" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>154</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -32269,10 +32269,10 @@
       <c r="D40" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="44" t="s">
+      <c r="E40" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="47" t="s">
         <v>157</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -32307,7 +32307,7 @@
       <c r="E41" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="47" t="s">
         <v>160</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -32342,7 +32342,7 @@
       <c r="E42" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>160</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -32377,7 +32377,7 @@
       <c r="E43" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>160</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -32412,7 +32412,7 @@
       <c r="E44" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>160</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -32444,10 +32444,10 @@
       <c r="D45" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>160</v>
       </c>
       <c r="G45" s="3" t="s">
@@ -32479,10 +32479,10 @@
       <c r="D46" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="48" t="s">
+      <c r="F46" s="47" t="s">
         <v>160</v>
       </c>
       <c r="G46" s="3" t="s">
@@ -32517,7 +32517,7 @@
       <c r="E47" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="48" t="s">
+      <c r="F47" s="47" t="s">
         <v>169</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -32552,7 +32552,7 @@
       <c r="E48" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="47" t="s">
         <v>169</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -32587,7 +32587,7 @@
       <c r="E49" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="48" t="s">
+      <c r="F49" s="47" t="s">
         <v>169</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -32622,7 +32622,7 @@
       <c r="E50" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F50" s="47" t="s">
         <v>169</v>
       </c>
       <c r="G50" s="3" t="s">
@@ -32657,7 +32657,7 @@
       <c r="E51" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="47" t="s">
         <v>169</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -32678,10 +32678,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H8 H16 H17 H18 H21 H22 H23 H43 H49 H50 H51 H4:H7 H9:H15 H19:H20 H24:H42 H44:H46 H47:H48 H52:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16 K21 K22 K23 K51 K1:K2 K3:K15 K17:K20 K24:K26 K27:K37 K38:K40 K41:K50 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32704,17 +32704,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="38" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -32745,7 +32745,7 @@
       <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="26" t="s">
@@ -32835,7 +32835,7 @@
       <c r="D4" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="42" t="s">
@@ -33808,7 +33808,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="41"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="3"/>
       <c r="H32" s="19"/>
       <c r="I32" s="4"/>
@@ -33820,7 +33820,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="41"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="46"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="3"/>
       <c r="H33" s="19"/>
       <c r="I33" s="4"/>
@@ -33832,7 +33832,7 @@
       <c r="C34" s="21"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="3"/>
       <c r="H34" s="19"/>
       <c r="I34" s="4"/>
@@ -33844,7 +33844,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="41"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="3"/>
       <c r="H35" s="19"/>
       <c r="I35" s="4"/>
@@ -33855,8 +33855,8 @@
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="3"/>
       <c r="H36" s="19"/>
       <c r="I36" s="4"/>
@@ -33868,7 +33868,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="41"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="48"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="3"/>
       <c r="H37" s="19"/>
       <c r="I37" s="4"/>
@@ -33880,7 +33880,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="41"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="48"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="3"/>
       <c r="H38" s="19"/>
       <c r="I38" s="4"/>
@@ -33892,7 +33892,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="41"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="48"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="3"/>
       <c r="H39" s="19"/>
       <c r="I39" s="4"/>
@@ -33903,8 +33903,8 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="3"/>
       <c r="H40" s="19"/>
       <c r="I40" s="4"/>
@@ -33916,7 +33916,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="41"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="48"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="3"/>
       <c r="H41" s="19"/>
       <c r="I41" s="4"/>
@@ -33928,7 +33928,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="48"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="3"/>
       <c r="H42" s="19"/>
       <c r="I42" s="4"/>
@@ -33940,7 +33940,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="41"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="48"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="3"/>
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
@@ -33952,7 +33952,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="41"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="3"/>
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
@@ -33963,8 +33963,8 @@
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="3"/>
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
@@ -33975,8 +33975,8 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="3"/>
       <c r="H46" s="19"/>
       <c r="I46" s="4"/>
@@ -33988,7 +33988,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="3"/>
       <c r="H47" s="19"/>
       <c r="I47" s="4"/>
@@ -34000,7 +34000,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="41"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="3"/>
       <c r="H48" s="19"/>
       <c r="I48" s="4"/>
@@ -34012,7 +34012,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="41"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="3"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
@@ -34024,7 +34024,7 @@
       <c r="C50" s="21"/>
       <c r="D50" s="41"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="48"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="3"/>
       <c r="H50" s="19"/>
       <c r="I50" s="4"/>
@@ -34035,8 +34035,8 @@
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="3"/>
       <c r="H51" s="19"/>
       <c r="I51" s="4"/>
@@ -34047,8 +34047,8 @@
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="3"/>
       <c r="H52" s="19"/>
       <c r="I52" s="4"/>
@@ -34060,7 +34060,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="41"/>
       <c r="E53" s="42"/>
-      <c r="F53" s="48"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="3"/>
       <c r="H53" s="19"/>
       <c r="I53" s="4"/>
@@ -34072,7 +34072,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="41"/>
       <c r="E54" s="42"/>
-      <c r="F54" s="48"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="3"/>
       <c r="H54" s="19"/>
       <c r="I54" s="4"/>
@@ -34084,7 +34084,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="41"/>
       <c r="E55" s="43"/>
-      <c r="F55" s="48"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="3"/>
       <c r="H55" s="19"/>
       <c r="I55" s="4"/>
@@ -34100,7 +34100,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="21"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="49"/>
     </row>
     <row r="57" customHeight="1" spans="1:10">
       <c r="A57" s="21"/>
@@ -34112,14 +34112,14 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="21"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H10 H11 H20 H21 H22 H49 H55 H4:H7 H8:H9 H12:H19 H23:H31 H32:H48 H50:H52 H53:H54 H56:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K14 K15 K16 K17 K18 K19 K2:K13 K20:K57 K58:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34139,17 +34139,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="38" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -34180,7 +34180,7 @@
       <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="26" t="s">
@@ -35182,7 +35182,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="41"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="46"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="3"/>
       <c r="H32" s="19"/>
       <c r="I32" s="4"/>
@@ -35196,7 +35196,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="41"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="46"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="3"/>
       <c r="H33" s="19"/>
       <c r="I33" s="4"/>
@@ -35210,7 +35210,7 @@
       <c r="C34" s="21"/>
       <c r="D34" s="41"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="3"/>
       <c r="H34" s="19"/>
       <c r="I34" s="4"/>
@@ -35224,7 +35224,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="41"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="46"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="3"/>
       <c r="H35" s="19"/>
       <c r="I35" s="4"/>
@@ -35237,8 +35237,8 @@
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="41"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="3"/>
       <c r="H36" s="19"/>
       <c r="I36" s="4"/>
@@ -35252,7 +35252,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="41"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="48"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="3"/>
       <c r="H37" s="19"/>
       <c r="I37" s="4"/>
@@ -35266,7 +35266,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="41"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="48"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="3"/>
       <c r="H38" s="19"/>
       <c r="I38" s="4"/>
@@ -35280,7 +35280,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="41"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="48"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="3"/>
       <c r="H39" s="19"/>
       <c r="I39" s="4"/>
@@ -35293,8 +35293,8 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="3"/>
       <c r="H40" s="19"/>
       <c r="I40" s="4"/>
@@ -35308,7 +35308,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="41"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="48"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="3"/>
       <c r="H41" s="19"/>
       <c r="I41" s="4"/>
@@ -35322,7 +35322,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="48"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="3"/>
       <c r="H42" s="19"/>
       <c r="I42" s="4"/>
@@ -35336,7 +35336,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="41"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="48"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="3"/>
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
@@ -35350,7 +35350,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="41"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="3"/>
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
@@ -35363,8 +35363,8 @@
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="3"/>
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
@@ -35377,8 +35377,8 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="3"/>
       <c r="H46" s="19"/>
       <c r="I46" s="4"/>
@@ -35392,7 +35392,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="3"/>
       <c r="H47" s="19"/>
       <c r="I47" s="4"/>
@@ -35406,7 +35406,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="41"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="3"/>
       <c r="H48" s="19"/>
       <c r="I48" s="4"/>
@@ -35420,7 +35420,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="41"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="3"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
@@ -35434,7 +35434,7 @@
       <c r="C50" s="21"/>
       <c r="D50" s="41"/>
       <c r="E50" s="43"/>
-      <c r="F50" s="48"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="3"/>
       <c r="H50" s="19"/>
       <c r="I50" s="4"/>
@@ -35447,8 +35447,8 @@
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="41"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="3"/>
       <c r="H51" s="19"/>
       <c r="I51" s="4"/>
@@ -35461,8 +35461,8 @@
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="41"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="3"/>
       <c r="H52" s="19"/>
       <c r="I52" s="4"/>
@@ -35476,7 +35476,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="41"/>
       <c r="E53" s="42"/>
-      <c r="F53" s="48"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="3"/>
       <c r="H53" s="19"/>
       <c r="I53" s="4"/>
@@ -35490,7 +35490,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="41"/>
       <c r="E54" s="42"/>
-      <c r="F54" s="48"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="3"/>
       <c r="H54" s="19"/>
       <c r="I54" s="4"/>
@@ -35504,7 +35504,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="41"/>
       <c r="E55" s="43"/>
-      <c r="F55" s="48"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="3"/>
       <c r="H55" s="19"/>
       <c r="I55" s="4"/>
@@ -35522,7 +35522,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="21"/>
-      <c r="J56" s="50"/>
+      <c r="J56" s="49"/>
     </row>
     <row r="57" customHeight="1" spans="1:10">
       <c r="A57" s="21"/>
@@ -35534,14 +35534,14 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="21"/>
-      <c r="J57" s="50"/>
+      <c r="J57" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H49 H55 H2:H4 H5:H7 H8:H10 H11:H13 H14:H16 H17:H19 H20:H22 H23:H25 H26:H28 H29:H31 H32:H48 H50:H52 H53:H54 H56:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K32 K33:K57 K58:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35561,17 +35561,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.6363636363636" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="32.7272727272727" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="51" width="76.9090909090909" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.7272727272727" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="76.9090909090909" style="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -35602,7 +35602,7 @@
       <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="26" t="s">
@@ -35727,7 +35727,7 @@
       <c r="D5" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F5" s="42" t="s">
@@ -35902,7 +35902,7 @@
       <c r="D10" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F10" s="42" t="s">
@@ -35972,7 +35972,7 @@
       <c r="D12" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="42" t="s">
@@ -36007,7 +36007,7 @@
       <c r="D13" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="45" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -36182,7 +36182,7 @@
       <c r="D18" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F18" s="42" t="s">
@@ -36357,7 +36357,7 @@
       <c r="D23" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F23" s="42" t="s">
@@ -36427,7 +36427,7 @@
       <c r="D25" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F25" s="42" t="s">
@@ -36462,7 +36462,7 @@
       <c r="D26" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="45" t="s">
         <v>107</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -36815,7 +36815,7 @@
       <c r="E36" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G36" s="3" t="s">
@@ -36850,7 +36850,7 @@
       <c r="E37" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G37" s="3" t="s">
@@ -36885,7 +36885,7 @@
       <c r="E38" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -36917,10 +36917,10 @@
       <c r="D39" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -36955,7 +36955,7 @@
       <c r="E40" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -36990,7 +36990,7 @@
       <c r="E41" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -37022,10 +37022,10 @@
       <c r="D42" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>350</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -37050,7 +37050,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="41"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="3"/>
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
@@ -37063,7 +37063,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="41"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="46"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="3"/>
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
@@ -37076,7 +37076,7 @@
       <c r="C45" s="21"/>
       <c r="D45" s="41"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="3"/>
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
@@ -37088,8 +37088,8 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="46"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="3"/>
       <c r="H46" s="19"/>
       <c r="I46" s="4"/>
@@ -37102,7 +37102,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="3"/>
       <c r="H47" s="19"/>
       <c r="I47" s="4"/>
@@ -37115,7 +37115,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="41"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="3"/>
       <c r="H48" s="19"/>
       <c r="I48" s="4"/>
@@ -37128,7 +37128,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="41"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="3"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
@@ -37140,8 +37140,8 @@
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="48"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="3"/>
       <c r="H50" s="19"/>
       <c r="I50" s="4"/>
@@ -37154,7 +37154,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="41"/>
       <c r="E51" s="42"/>
-      <c r="F51" s="48"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="3"/>
       <c r="H51" s="19"/>
       <c r="I51" s="4"/>
@@ -37167,7 +37167,7 @@
       <c r="C52" s="21"/>
       <c r="D52" s="41"/>
       <c r="E52" s="42"/>
-      <c r="F52" s="48"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="3"/>
       <c r="H52" s="19"/>
       <c r="I52" s="4"/>
@@ -37180,7 +37180,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="41"/>
       <c r="E53" s="43"/>
-      <c r="F53" s="48"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="3"/>
       <c r="H53" s="19"/>
       <c r="I53" s="4"/>
@@ -37193,7 +37193,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="41"/>
       <c r="E54" s="53"/>
-      <c r="F54" s="48"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="3"/>
       <c r="H54" s="19"/>
       <c r="I54" s="4"/>
@@ -37205,8 +37205,8 @@
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
       <c r="D55" s="41"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="48"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="3"/>
       <c r="H55" s="19"/>
       <c r="I55" s="4"/>
@@ -37218,8 +37218,8 @@
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
       <c r="D56" s="41"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="48"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="3"/>
       <c r="H56" s="19"/>
       <c r="I56" s="4"/>
@@ -37232,7 +37232,7 @@
       <c r="C57" s="21"/>
       <c r="D57" s="41"/>
       <c r="E57" s="42"/>
-      <c r="F57" s="48"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="3"/>
       <c r="H57" s="19"/>
       <c r="I57" s="4"/>
@@ -37245,7 +37245,7 @@
       <c r="C58" s="21"/>
       <c r="D58" s="41"/>
       <c r="E58" s="42"/>
-      <c r="F58" s="48"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="3"/>
       <c r="H58" s="19"/>
       <c r="I58" s="4"/>
@@ -37258,7 +37258,7 @@
       <c r="C59" s="21"/>
       <c r="D59" s="41"/>
       <c r="E59" s="43"/>
-      <c r="F59" s="48"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="3"/>
       <c r="H59" s="19"/>
       <c r="I59" s="4"/>
@@ -37271,7 +37271,7 @@
       <c r="C60" s="21"/>
       <c r="D60" s="41"/>
       <c r="E60" s="53"/>
-      <c r="F60" s="48"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="3"/>
       <c r="H60" s="19"/>
       <c r="I60" s="4"/>
@@ -37283,8 +37283,8 @@
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
       <c r="D61" s="41"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="48"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="3"/>
       <c r="H61" s="19"/>
       <c r="I61" s="4"/>
@@ -37296,8 +37296,8 @@
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
       <c r="D62" s="41"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="48"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="3"/>
       <c r="H62" s="19"/>
       <c r="I62" s="4"/>
@@ -37310,7 +37310,7 @@
       <c r="C63" s="21"/>
       <c r="D63" s="41"/>
       <c r="E63" s="42"/>
-      <c r="F63" s="48"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="3"/>
       <c r="H63" s="19"/>
       <c r="I63" s="4"/>
@@ -37323,7 +37323,7 @@
       <c r="C64" s="21"/>
       <c r="D64" s="41"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="48"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="3"/>
       <c r="H64" s="19"/>
       <c r="I64" s="4"/>
@@ -37336,7 +37336,7 @@
       <c r="C65" s="21"/>
       <c r="D65" s="41"/>
       <c r="E65" s="43"/>
-      <c r="F65" s="48"/>
+      <c r="F65" s="47"/>
       <c r="G65" s="3"/>
       <c r="H65" s="19"/>
       <c r="I65" s="4"/>
@@ -37353,7 +37353,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="21"/>
-      <c r="J66" s="50"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="19"/>
     </row>
     <row r="67" customHeight="1" spans="1:11">
@@ -37366,15 +37366,15 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="21"/>
-      <c r="J67" s="50"/>
+      <c r="J67" s="49"/>
       <c r="K67" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H12 H13 H14 H15 H16 H25 H26 H27 H36 H37 H41 H59 H65 H4:H6 H7:H11 H17:H19 H20:H24 H28:H35 H38:H40 H42:H58 H60:H62 H63:H64 H66:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K2:K14 K15:K19 K40:K42 K43:K53 K54:K56 K57:K66 K67:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37394,17 +37394,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.2727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="74.8181818181818" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="74.8181818181818" style="38" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -37435,7 +37435,7 @@
       <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="26" t="s">
@@ -37560,7 +37560,7 @@
       <c r="D5" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F5" s="42" t="s">
@@ -37665,7 +37665,7 @@
       <c r="D8" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F8" s="42" t="s">
@@ -37805,7 +37805,7 @@
       <c r="D12" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="42" t="s">
@@ -37910,7 +37910,7 @@
       <c r="D15" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F15" s="42" t="s">
@@ -38085,7 +38085,7 @@
       <c r="D20" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="45" t="s">
         <v>297</v>
       </c>
       <c r="F20" s="42" t="s">
@@ -38120,7 +38120,7 @@
       <c r="D21" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="50" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="42" t="s">
@@ -38193,7 +38193,7 @@
       <c r="E23" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="44" t="s">
         <v>389</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -38228,7 +38228,7 @@
       <c r="E24" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>389</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -38263,7 +38263,7 @@
       <c r="E25" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>389</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -38298,7 +38298,7 @@
       <c r="E26" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>389</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -38330,10 +38330,10 @@
       <c r="D27" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>389</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -38368,7 +38368,7 @@
       <c r="E28" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>389</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -38393,7 +38393,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="41"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="46"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="3"/>
       <c r="H29" s="19"/>
       <c r="I29" s="4"/>
@@ -38404,8 +38404,8 @@
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="3"/>
       <c r="H30" s="19"/>
       <c r="I30" s="4"/>
@@ -38417,7 +38417,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="41"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="3"/>
       <c r="H31" s="19"/>
       <c r="I31" s="4"/>
@@ -38429,7 +38429,7 @@
       <c r="C32" s="21"/>
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="48"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="3"/>
       <c r="H32" s="19"/>
       <c r="I32" s="4"/>
@@ -38441,7 +38441,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="41"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="48"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="3"/>
       <c r="H33" s="19"/>
       <c r="I33" s="4"/>
@@ -38452,8 +38452,8 @@
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="3"/>
       <c r="H34" s="19"/>
       <c r="I34" s="4"/>
@@ -38465,7 +38465,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
-      <c r="F35" s="48"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="3"/>
       <c r="H35" s="19"/>
       <c r="I35" s="4"/>
@@ -38477,7 +38477,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
-      <c r="F36" s="48"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="3"/>
       <c r="H36" s="19"/>
       <c r="I36" s="4"/>
@@ -38489,7 +38489,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="41"/>
       <c r="E37" s="43"/>
-      <c r="F37" s="48"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="3"/>
       <c r="H37" s="19"/>
       <c r="I37" s="4"/>
@@ -38501,7 +38501,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="41"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="48"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="3"/>
       <c r="H38" s="19"/>
       <c r="I38" s="4"/>
@@ -38512,8 +38512,8 @@
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="41"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="3"/>
       <c r="H39" s="19"/>
       <c r="I39" s="4"/>
@@ -38524,8 +38524,8 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="3"/>
       <c r="H40" s="19"/>
       <c r="I40" s="4"/>
@@ -38537,7 +38537,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="41"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="48"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="3"/>
       <c r="H41" s="19"/>
       <c r="I41" s="4"/>
@@ -38549,7 +38549,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="48"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="3"/>
       <c r="H42" s="19"/>
       <c r="I42" s="4"/>
@@ -38561,7 +38561,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="41"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="48"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="3"/>
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
@@ -38573,7 +38573,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="41"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="3"/>
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
@@ -38584,8 +38584,8 @@
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="3"/>
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
@@ -38596,8 +38596,8 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="3"/>
       <c r="H46" s="19"/>
       <c r="I46" s="4"/>
@@ -38609,7 +38609,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="3"/>
       <c r="H47" s="19"/>
       <c r="I47" s="4"/>
@@ -38621,7 +38621,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="41"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="3"/>
       <c r="H48" s="19"/>
       <c r="I48" s="4"/>
@@ -38633,7 +38633,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="41"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="3"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
@@ -38649,7 +38649,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="49"/>
     </row>
     <row r="51" customHeight="1" spans="1:10">
       <c r="A51" s="21"/>
@@ -38661,17 +38661,17 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4 G5 G6 G7 G2:G3 G9:G15 G16:G20 G21:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G9:G1048576">
       <formula1>"GET,POST,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H8 H9 H10 H11 H12 H13 H14 H15 H16 H20 H21 H25 H43 H49 H5:H7 H17:H19 H22:H24 H26:H42 H44:H46 H47:H48 H50:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K28 K29:K31 K32:K51 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38688,23 +38688,23 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36363636363636" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7545454545455" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.2727272727273" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="29.9090909090909" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="38" width="74.8181818181818" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="29" width="31.8181818181818" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="12" width="13.8181818181818" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="12" width="13.5" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.8727272727273" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="39" width="24.6272727272727" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="12" width="14.8727272727273" collapsed="true"/>
+    <col min="1" max="1" width="6.36363636363636" customWidth="1"/>
+    <col min="2" max="2" width="18.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="29.9090909090909" style="9" customWidth="1"/>
+    <col min="5" max="5" width="74.8181818181818" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.8181818181818" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13.8181818181818" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32.8727272727273" customWidth="1"/>
+    <col min="10" max="10" width="24.6272727272727" style="39" customWidth="1"/>
+    <col min="11" max="11" width="14.8727272727273" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:11">
@@ -38735,7 +38735,7 @@
       <c r="I1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="26" t="s">
@@ -39383,7 +39383,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="41"/>
-      <c r="E20" s="44"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -39402,7 +39402,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="41"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -39420,12 +39420,12 @@
         <v>47</v>
       </c>
       <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="42"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="19">
@@ -39438,8 +39438,8 @@
         <v>47</v>
       </c>
       <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
@@ -39457,7 +39457,7 @@
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
@@ -39474,12 +39474,12 @@
         <v>47</v>
       </c>
       <c r="D25" s="41"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="19">
@@ -39493,7 +39493,7 @@
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="3"/>
       <c r="H26" s="19"/>
       <c r="I26" s="4"/>
@@ -39510,8 +39510,8 @@
         <v>47</v>
       </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="46"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="3"/>
       <c r="H27" s="19"/>
       <c r="I27" s="4"/>
@@ -39529,7 +39529,7 @@
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="46"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="3"/>
       <c r="H28" s="19"/>
       <c r="I28" s="4"/>
@@ -39545,7 +39545,7 @@
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="46"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="3"/>
       <c r="H29" s="19"/>
       <c r="I29" s="4"/>
@@ -39556,8 +39556,8 @@
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="41"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="3"/>
       <c r="H30" s="19"/>
       <c r="I30" s="4"/>
@@ -39569,7 +39569,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="41"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="3"/>
       <c r="H31" s="19"/>
       <c r="I31" s="4"/>
@@ -39581,7 +39581,7 @@
       <c r="C32" s="21"/>
       <c r="D32" s="41"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="48"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="3"/>
       <c r="H32" s="19"/>
       <c r="I32" s="4"/>
@@ -39593,7 +39593,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="41"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="48"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="3"/>
       <c r="H33" s="19"/>
       <c r="I33" s="4"/>
@@ -39604,8 +39604,8 @@
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="41"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="3"/>
       <c r="H34" s="19"/>
       <c r="I34" s="4"/>
@@ -39617,7 +39617,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
-      <c r="F35" s="48"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="3"/>
       <c r="H35" s="19"/>
       <c r="I35" s="4"/>
@@ -39629,7 +39629,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="41"/>
       <c r="E36" s="42"/>
-      <c r="F36" s="48"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="3"/>
       <c r="H36" s="19"/>
       <c r="I36" s="4"/>
@@ -39641,7 +39641,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="41"/>
       <c r="E37" s="43"/>
-      <c r="F37" s="48"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="3"/>
       <c r="H37" s="19"/>
       <c r="I37" s="4"/>
@@ -39653,7 +39653,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="41"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="48"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="3"/>
       <c r="H38" s="19"/>
       <c r="I38" s="4"/>
@@ -39664,8 +39664,8 @@
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="41"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="3"/>
       <c r="H39" s="19"/>
       <c r="I39" s="4"/>
@@ -39676,8 +39676,8 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="41"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="3"/>
       <c r="H40" s="19"/>
       <c r="I40" s="4"/>
@@ -39689,7 +39689,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="41"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="48"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="3"/>
       <c r="H41" s="19"/>
       <c r="I41" s="4"/>
@@ -39701,7 +39701,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="41"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="48"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="3"/>
       <c r="H42" s="19"/>
       <c r="I42" s="4"/>
@@ -39713,7 +39713,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="41"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="48"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="3"/>
       <c r="H43" s="19"/>
       <c r="I43" s="4"/>
@@ -39725,7 +39725,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="41"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="48"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="3"/>
       <c r="H44" s="19"/>
       <c r="I44" s="4"/>
@@ -39736,8 +39736,8 @@
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="41"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="3"/>
       <c r="H45" s="19"/>
       <c r="I45" s="4"/>
@@ -39748,8 +39748,8 @@
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="41"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="3"/>
       <c r="H46" s="19"/>
       <c r="I46" s="4"/>
@@ -39761,7 +39761,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="3"/>
       <c r="H47" s="19"/>
       <c r="I47" s="4"/>
@@ -39773,7 +39773,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="41"/>
       <c r="E48" s="42"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="3"/>
       <c r="H48" s="19"/>
       <c r="I48" s="4"/>
@@ -39785,7 +39785,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="41"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="3"/>
       <c r="H49" s="19"/>
       <c r="I49" s="4"/>
@@ -39801,7 +39801,7 @@
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
       <c r="I50" s="21"/>
-      <c r="J50" s="50"/>
+      <c r="J50" s="49"/>
     </row>
     <row r="51" customHeight="1" spans="1:10">
       <c r="A51" s="21"/>
@@ -39813,17 +39813,17 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="50"/>
+      <c r="J51" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4 G5 G6 G7 G10 G11 G12 G13 G16 G17 G18 G19 G20 G2:G3 G8:G9 G14:G15 G21:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"GET,POST,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H25 H43 H49 H22:H24 H26:H42 H44:H46 H47:H48 H50:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K7 K8:K13 K14:K19 K20:K28 K29:K31 K32:K51 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -32711,7 +32711,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
+    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38701,7 +38701,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
+    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38711,8 +38711,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -15366,10 +15366,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2:H7 H8:H19 H20:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K3:K19 K20:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15870,10 +15870,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10:H11 H12:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H13">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K9 K10 K11 K12 K13 K7:K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K13">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16995,10 +16995,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H14 H15 H16 H17 H18 H19 H20 H21 H24 H25 H28 H29 H10:H11 H12:H13 H22:H23 H26:H27 H30:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H31">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K20 K21 K22 K29 K30 K31 K6:K7 K18:K19 K23:K28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K31">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17740,10 +17740,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H19">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K19">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19772,10 +19772,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H4 H5 H10 H11 H12 H13 H16 H17 H18 H19 H20 H21 H22 H25 H26 H27 H30 H33 H36 H37 H38 H41 H42 H47 H48 H49 H50 H51 H52 H53 H54 H2:H3 H6:H7 H8:H9 H14:H15 H23:H24 H28:H29 H31:H32 H34:H35 H39:H40 H43:H44 H45:H46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H54">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K9 K10 K11 K12 K15 K18 K19 K20 K21 K24 K25 K26 K29 K30 K31 K32 K33 K34 K35 K36 K37 K40 K41 K42 K43 K44 K45 K46 K47 K50 K51 K54 K5:K6 K7:K8 K13:K14 K16:K17 K22:K23 K27:K28 K38:K39 K48:K49 K52:K53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K54">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20252,10 +20252,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H5 H6 H9 H10 H11 H2:H4 H7:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H11">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K8 K9 K10 K11 K2:K5 K6:K7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K11">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20854,10 +20854,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H5:H6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H16">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K3:K4 K5:K6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K16">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21285,10 +21285,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H8">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K8">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21686,10 +21686,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H8">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K8">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22214,10 +22214,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H13">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K13">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23211,11 +23211,11 @@
       </c>
       <c r="D36" s="73">
         <f>COUNTIF(Profile!K:K,"Pass")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36" s="73">
         <f>COUNTIF(Profile!K:K,"Fail")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="73">
         <f>COUNTIF(Profile!K:K,"Hold")</f>
@@ -23223,11 +23223,11 @@
       </c>
       <c r="G36" s="74">
         <f t="shared" si="7"/>
-        <v>55.5555555555556</v>
+        <v>77.7777777777778</v>
       </c>
       <c r="H36" s="74">
         <f t="shared" si="8"/>
-        <v>44.4444444444444</v>
+        <v>22.2222222222222</v>
       </c>
       <c r="I36" s="74">
         <f t="shared" si="9"/>
@@ -23358,11 +23358,11 @@
       </c>
       <c r="D47" s="80">
         <f t="shared" si="10"/>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="80">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F47" s="80">
         <f t="shared" si="10"/>
@@ -23370,11 +23370,11 @@
       </c>
       <c r="G47" s="81">
         <f t="shared" ref="G47:I47" si="11">AVERAGE(G32:G46)</f>
-        <v>67.6964769647696</v>
+        <v>72.1409214092141</v>
       </c>
       <c r="H47" s="81">
         <f t="shared" si="11"/>
-        <v>32.3035230352304</v>
+        <v>27.8590785907859</v>
       </c>
       <c r="I47" s="81">
         <f t="shared" si="11"/>
@@ -23978,10 +23978,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H16">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K16">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24712,10 +24712,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H20">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K20">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25384,10 +25384,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H18">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K18">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26194,10 +26194,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H18 H19 H20 H21 H4:H5 H16:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K15 K16 K17 K18 K19 K20 K21 K3:K4 K13:K14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26970,10 +26970,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H18 H19 H20 H21 H4:H5 H16:H17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K8 K9 K10 K11 K12 K15 K16 K17 K18 K19 K20 K21 K3:K4 K13:K14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27747,10 +27747,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H10 H11 H12 H13 H18 H21 H4:H5 H8:H9 H14:H15 H16:H17 H19:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K10 K11 K12 K13 K16 K17 K18 K21 K3:K4 K8:K9 K14:K15 K19:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28524,10 +28524,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H6 H7 H10 H11 H12 H13 H18 H21 H4:H5 H8:H9 H14:H15 H16:H17 H19:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K5 K6 K7 K10 K11 K12 K13 K16 K17 K18 K21 K3:K4 K8:K9 K14:K15 K19:K20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29300,10 +29300,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H10 H11 H12 H13 H20 H21 H8:H9 H14:H15 H16:H17 H18:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K10 K11 K12 K13 K16 K17 K18 K19 K20 K21 K8:K9 K14:K15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30076,10 +30076,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H10 H11 H12 H13 H20 H21 H8:H9 H14:H15 H16:H17 H18:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K19 K20 K21 K17:K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30855,10 +30855,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H10 H11 H12 H13 H20 H21 H8:H9 H14:H15 H16:H17 H18:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H21">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K20 K21 K18:K19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K21">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32678,17 +32678,17 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H8 H16 H17 H18 H21 H22 H23 H43 H49 H50 H51 H4:H7 H9:H15 H19:H20 H24:H42 H44:H46 H47:H48 H52:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16 K21 K22 K23 K51 K1:K2 K3:K15 K17:K20 K24:K26 K27:K37 K38:K40 K41:K50 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -34116,10 +34116,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H10 H11 H20 H21 H22 H49 H55 H4:H7 H8:H9 H12:H19 H23:H31 H32:H48 H50:H52 H53:H54 H56:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K14 K15 K16 K17 K18 K19 K2:K13 K20:K57 K58:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35538,10 +35538,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H49 H55 H2:H4 H5:H7 H8:H10 H11:H13 H14:H16 H17:H19 H20:H22 H23:H25 H26:H28 H29:H31 H32:H48 H50:H52 H53:H54 H56:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K32 K33:K57 K58:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37371,10 +37371,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H12 H13 H14 H15 H16 H25 H26 H27 H36 H37 H41 H59 H65 H4:H6 H7:H11 H17:H19 H20:H24 H28:H35 H38:H40 H42:H58 H60:H62 H63:H64 H66:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K2:K14 K15:K19 K40:K42 K43:K53 K54:K56 K57:K66 K67:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38665,20 +38665,20 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4 G5 G6 G7 G2:G3 G9:G15 G16:G20 G21:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G9:G1048576">
       <formula1>"GET,POST,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H8 H9 H10 H11 H12 H13 H14 H15 H16 H20 H21 H25 H43 H49 H5:H7 H17:H19 H22:H24 H26:H42 H44:H46 H47:H48 H50:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K28 K29:K31 K32:K51 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38689,7 +38689,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
@@ -39372,7 +39372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="1" customHeight="1" spans="1:11">
+    <row r="20" customFormat="1" customHeight="1" spans="1:10">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -39389,9 +39389,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:10">
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -39408,8 +39407,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="4"/>
       <c r="J21" s="7"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:10">
+      <c r="K21"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -39426,8 +39426,9 @@
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="7"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:10">
+      <c r="K22"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -39444,8 +39445,9 @@
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="7"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:10">
+      <c r="K23"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:11">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -39462,8 +39464,9 @@
       <c r="H24" s="3"/>
       <c r="I24" s="4"/>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:10">
+      <c r="K24"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -39480,6 +39483,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
+      <c r="K25"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="19">
@@ -39817,13 +39821,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4 G5 G6 G7 G10 G11 G12 G13 G16 G17 G18 G19 G20 G2:G3 G8:G9 G14:G15 G21:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"GET,POST,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H25 H43 H49 H22:H24 H26:H42 H44:H46 H47:H48 H50:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2:K7 K8:K13 K14:K19 K20:K28 K29:K31 K32:K51 K52:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -2573,6 +2573,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Update Caregiver Profile:</t>
     </r>
     <r>
@@ -32732,7 +32740,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38722,7 +38730,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38733,7 +38741,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
@@ -40060,10 +40068,10 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G25 G26:G31 G32:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"GET,POST,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H25 H26:H31 H32:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6085" uniqueCount="1883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6091" uniqueCount="1883">
   <si>
     <t>Mavens i
 IKSANA
@@ -23255,19 +23255,19 @@
       </c>
       <c r="B36" s="78">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C36" s="73">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D36" s="73">
         <f>COUNTIF(Profile!K:K,"Pass")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E36" s="73">
         <f>COUNTIF(Profile!K:K,"Fail")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F36" s="73">
         <f>COUNTIF(Profile!K:K,"Hold")</f>
@@ -23275,11 +23275,11 @@
       </c>
       <c r="G36" s="74">
         <f t="shared" si="7"/>
-        <v>58.3333333333333</v>
+        <v>60</v>
       </c>
       <c r="H36" s="74">
         <f t="shared" si="8"/>
-        <v>41.6666666666667</v>
+        <v>40</v>
       </c>
       <c r="I36" s="74">
         <f t="shared" si="9"/>
@@ -23402,19 +23402,19 @@
       </c>
       <c r="B47" s="80">
         <f t="shared" ref="B47:F47" si="10">SUM(B32:B46)</f>
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C47" s="80">
         <f t="shared" si="10"/>
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D47" s="80">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E47" s="80">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F47" s="80">
         <f t="shared" si="10"/>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="G47" s="81">
         <f t="shared" ref="G47:I47" si="11">AVERAGE(G32:G46)</f>
-        <v>68.2520325203252</v>
+        <v>68.5853658536585</v>
       </c>
       <c r="H47" s="81">
         <f t="shared" si="11"/>
-        <v>31.7479674796748</v>
+        <v>31.4146341463415</v>
       </c>
       <c r="I47" s="81">
         <f t="shared" si="11"/>
@@ -32740,7 +32740,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
+    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38730,7 +38730,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
+    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38740,8 +38740,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
@@ -39634,7 +39634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
+    <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -39665,8 +39665,11 @@
       <c r="J26" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:10">
+      <c r="K26" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -39697,8 +39700,11 @@
       <c r="J27" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:10">
+      <c r="K27" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -39729,8 +39735,11 @@
       <c r="J28" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:10">
+      <c r="K28" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -39761,8 +39770,11 @@
       <c r="J29" s="7" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:10">
+      <c r="K29" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:11">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -39793,8 +39805,11 @@
       <c r="J30" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:10">
+      <c r="K30" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:11">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -39824,6 +39839,9 @@
       </c>
       <c r="J31" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:10">
@@ -40074,7 +40092,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K25 K26:K31 K32:K1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -2614,6 +2614,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Update Veteran Profile:</t>
     </r>
     <r>
@@ -38770,8 +38778,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -32778,7 +32778,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38768,7 +38768,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38779,7 +38779,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -2614,6 +2614,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Update Veteran Profile:</t>
     </r>
     <r>
@@ -32773,7 +32781,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38763,7 +38771,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
+    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38773,8 +38781,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
@@ -40257,13 +40265,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G31 G32:G37 G38:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"GET,POST,PUT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H31 H32:H37 H38:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K31 K32:K37 K38:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"Pass,Fail,Hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -32781,7 +32781,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
+    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38771,7 +38771,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
+    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38781,8 +38781,8 @@
   <sheetPr/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>

--- a/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
+++ b/IKSANA_API_TESTING/Files/Iksana_API_Testing_Testcases_v0.1.xlsx
@@ -32781,7 +32781,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 K3:K15 H1" listDataValidation="1"/>
+    <ignoredError sqref="H1 K3:K15 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38771,7 +38771,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K1 G1:H1" listDataValidation="1"/>
+    <ignoredError sqref="G1:H1 K1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -38782,7 +38782,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.8727272727273" defaultRowHeight="28" customHeight="1"/>
